--- a/Weeet.xlsx
+++ b/Weeet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yasukochiryuji/Desktop/AP/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kana/Dev/Weeet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95B9C1F7-163A-B948-A54A-B22D302448EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1380B3AC-F317-EE47-9B4F-136196D0E496}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1220" yWindow="460" windowWidth="29360" windowHeight="16160" activeTab="1" xr2:uid="{A8533376-7DF6-8947-A40A-86E1B30DE14C}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16160" xr2:uid="{A8533376-7DF6-8947-A40A-86E1B30DE14C}"/>
   </bookViews>
   <sheets>
     <sheet name="画面推移図" sheetId="2" r:id="rId1"/>
@@ -114,9 +114,6 @@
   </si>
   <si>
     <t>「マイメニュー」</t>
-  </si>
-  <si>
-    <t>https://bootsnipp.com/snippets/4Mm5R</t>
   </si>
   <si>
     <t>「ユーザ情報の登録・変更」</t>
@@ -233,6 +230,10 @@
     <rPh sb="3" eb="5">
       <t>カクニn</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://bootsnipp.com/snippets/4Mm5R</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -8138,7 +8139,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3295E7EC-7B79-084A-81BE-1426BC39D6C3}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <sheetData/>
@@ -8152,7 +8153,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07B98E68-C0EB-E24B-AA91-3AAD647C25A6}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
@@ -8168,8 +8169,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3913F1AB-F081-124A-9E2D-23BFFF0C3CD1}">
   <dimension ref="B3:B126"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -8321,197 +8322,197 @@
     </row>
     <row r="55" spans="2:2">
       <c r="B55" s="3" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
     </row>
     <row r="58" spans="2:2">
       <c r="B58" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="59" spans="2:2">
       <c r="B59" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="60" spans="2:2">
       <c r="B60" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="61" spans="2:2">
       <c r="B61" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="64" spans="2:2">
       <c r="B64" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="65" spans="2:2">
       <c r="B65" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="68" spans="2:2">
       <c r="B68" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="69" spans="2:2">
       <c r="B69" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="70" spans="2:2">
       <c r="B70" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="71" spans="2:2">
       <c r="B71" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="73" spans="2:2">
       <c r="B73" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="74" spans="2:2">
       <c r="B74" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="75" spans="2:2">
       <c r="B75" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="78" spans="2:2">
       <c r="B78" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="79" spans="2:2">
       <c r="B79" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="80" spans="2:2">
       <c r="B80" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="81" spans="2:2">
       <c r="B81" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="82" spans="2:2">
       <c r="B82" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="85" spans="2:2">
       <c r="B85" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="86" spans="2:2">
       <c r="B86" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="87" spans="2:2">
       <c r="B87" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="90" spans="2:2">
       <c r="B90" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="91" spans="2:2">
       <c r="B91" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="92" spans="2:2">
       <c r="B92" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="95" spans="2:2">
       <c r="B95" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="96" spans="2:2">
       <c r="B96" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="97" spans="2:2">
       <c r="B97" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="101" spans="2:2">
       <c r="B101" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="104" spans="2:2">
       <c r="B104" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="107" spans="2:2">
       <c r="B107" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="110" spans="2:2">
       <c r="B110" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="113" spans="2:2">
       <c r="B113" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="116" spans="2:2">
       <c r="B116" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="119" spans="2:2">
       <c r="B119" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="120" spans="2:2">
       <c r="B120" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="122" spans="2:2">
       <c r="B122" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="125" spans="2:2">
       <c r="B125" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="126" spans="2:2">
       <c r="B126" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
